--- a/Case2_Market data.xlsx
+++ b/Case2_Market data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z003barc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonca\Documents\GitHub\bc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16C9D45-4EFC-4EDC-A525-67B2540360B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5717BF-CDEC-4032-B09F-B44920976121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original Values" sheetId="1" r:id="rId1"/>
@@ -1032,9 +1032,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1072,7 +1072,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1178,7 +1178,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1320,7 +1320,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1332,28 +1332,28 @@
   <dimension ref="A1:AZ222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" customWidth="1"/>
-    <col min="18" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" customWidth="1"/>
+    <col min="18" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10" customWidth="1"/>
-    <col min="27" max="32" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="47" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.77734375" customWidth="1"/>
+    <col min="27" max="32" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="47" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="2" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" s="2" customFormat="1" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -1625,7 +1625,7 @@
       <c r="AY2" s="6"/>
       <c r="AZ2" s="6"/>
     </row>
-    <row r="3" spans="1:52" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>38</v>
       </c>
@@ -1775,7 +1775,7 @@
       <c r="AY3" s="6"/>
       <c r="AZ3" s="6"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>86</v>
       </c>
@@ -1919,7 +1919,7 @@
       <c r="AY4" s="7"/>
       <c r="AZ4" s="7"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>87</v>
       </c>
@@ -2063,7 +2063,7 @@
       <c r="AY5" s="7"/>
       <c r="AZ5" s="7"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>88</v>
       </c>
@@ -2207,7 +2207,7 @@
       <c r="AY6" s="7"/>
       <c r="AZ6" s="7"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>89</v>
       </c>
@@ -2351,7 +2351,7 @@
       <c r="AY7" s="7"/>
       <c r="AZ7" s="7"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>90</v>
       </c>
@@ -2495,7 +2495,7 @@
       <c r="AY8" s="7"/>
       <c r="AZ8" s="7"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>91</v>
       </c>
@@ -2639,7 +2639,7 @@
       <c r="AY9" s="7"/>
       <c r="AZ9" s="7"/>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>92</v>
       </c>
@@ -2783,7 +2783,7 @@
       <c r="AY10" s="7"/>
       <c r="AZ10" s="7"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>93</v>
       </c>
@@ -2927,7 +2927,7 @@
       <c r="AY11" s="7"/>
       <c r="AZ11" s="7"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>94</v>
       </c>
@@ -3071,7 +3071,7 @@
       <c r="AY12" s="7"/>
       <c r="AZ12" s="7"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>95</v>
       </c>
@@ -3215,7 +3215,7 @@
       <c r="AY13" s="7"/>
       <c r="AZ13" s="7"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>96</v>
       </c>
@@ -3359,7 +3359,7 @@
       <c r="AY14" s="7"/>
       <c r="AZ14" s="7"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>97</v>
       </c>
@@ -3505,7 +3505,7 @@
       <c r="AY15" s="7"/>
       <c r="AZ15" s="7"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>98</v>
       </c>
@@ -3651,7 +3651,7 @@
       <c r="AY16" s="7"/>
       <c r="AZ16" s="7"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>99</v>
       </c>
@@ -3797,7 +3797,7 @@
       <c r="AY17" s="7"/>
       <c r="AZ17" s="7"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>100</v>
       </c>
@@ -3943,7 +3943,7 @@
       <c r="AY18" s="7"/>
       <c r="AZ18" s="7"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>101</v>
       </c>
@@ -4089,7 +4089,7 @@
       <c r="AY19" s="7"/>
       <c r="AZ19" s="7"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>102</v>
       </c>
@@ -4235,7 +4235,7 @@
       <c r="AY20" s="7"/>
       <c r="AZ20" s="7"/>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>103</v>
       </c>
@@ -4381,7 +4381,7 @@
       <c r="AY21" s="7"/>
       <c r="AZ21" s="7"/>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>104</v>
       </c>
@@ -4527,7 +4527,7 @@
       <c r="AY22" s="7"/>
       <c r="AZ22" s="7"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>105</v>
       </c>
@@ -4673,7 +4673,7 @@
       <c r="AY23" s="7"/>
       <c r="AZ23" s="7"/>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>106</v>
       </c>
@@ -4819,7 +4819,7 @@
       <c r="AY24" s="7"/>
       <c r="AZ24" s="7"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>107</v>
       </c>
@@ -4965,7 +4965,7 @@
       <c r="AY25" s="7"/>
       <c r="AZ25" s="7"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>108</v>
       </c>
@@ -5111,7 +5111,7 @@
       <c r="AY26" s="7"/>
       <c r="AZ26" s="7"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>109</v>
       </c>
@@ -5259,7 +5259,7 @@
       <c r="AY27" s="7"/>
       <c r="AZ27" s="7"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>110</v>
       </c>
@@ -5407,7 +5407,7 @@
       <c r="AY28" s="7"/>
       <c r="AZ28" s="7"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>111</v>
       </c>
@@ -5555,7 +5555,7 @@
       <c r="AY29" s="7"/>
       <c r="AZ29" s="7"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>112</v>
       </c>
@@ -5703,7 +5703,7 @@
       <c r="AY30" s="7"/>
       <c r="AZ30" s="7"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>113</v>
       </c>
@@ -5851,7 +5851,7 @@
       <c r="AY31" s="7"/>
       <c r="AZ31" s="7"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>114</v>
       </c>
@@ -5999,7 +5999,7 @@
       <c r="AY32" s="7"/>
       <c r="AZ32" s="7"/>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>115</v>
       </c>
@@ -6147,7 +6147,7 @@
       <c r="AY33" s="7"/>
       <c r="AZ33" s="7"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>116</v>
       </c>
@@ -6295,7 +6295,7 @@
       <c r="AY34" s="7"/>
       <c r="AZ34" s="7"/>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>117</v>
       </c>
@@ -6443,7 +6443,7 @@
       <c r="AY35" s="7"/>
       <c r="AZ35" s="7"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>118</v>
       </c>
@@ -6591,7 +6591,7 @@
       <c r="AY36" s="7"/>
       <c r="AZ36" s="7"/>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>119</v>
       </c>
@@ -6739,7 +6739,7 @@
       <c r="AY37" s="7"/>
       <c r="AZ37" s="7"/>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>120</v>
       </c>
@@ -6887,7 +6887,7 @@
       <c r="AY38" s="7"/>
       <c r="AZ38" s="7"/>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>121</v>
       </c>
@@ -7037,7 +7037,7 @@
       <c r="AY39" s="7"/>
       <c r="AZ39" s="7"/>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>122</v>
       </c>
@@ -7187,7 +7187,7 @@
       <c r="AY40" s="7"/>
       <c r="AZ40" s="7"/>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>123</v>
       </c>
@@ -7337,7 +7337,7 @@
       <c r="AY41" s="7"/>
       <c r="AZ41" s="7"/>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>124</v>
       </c>
@@ -7487,7 +7487,7 @@
       <c r="AY42" s="7"/>
       <c r="AZ42" s="7"/>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>125</v>
       </c>
@@ -7637,7 +7637,7 @@
       <c r="AY43" s="7"/>
       <c r="AZ43" s="7"/>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>126</v>
       </c>
@@ -7787,7 +7787,7 @@
       <c r="AY44" s="7"/>
       <c r="AZ44" s="7"/>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>127</v>
       </c>
@@ -7937,7 +7937,7 @@
       <c r="AY45" s="7"/>
       <c r="AZ45" s="7"/>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>128</v>
       </c>
@@ -8087,7 +8087,7 @@
       <c r="AY46" s="7"/>
       <c r="AZ46" s="7"/>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>129</v>
       </c>
@@ -8237,7 +8237,7 @@
       <c r="AY47" s="7"/>
       <c r="AZ47" s="7"/>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>130</v>
       </c>
@@ -8387,7 +8387,7 @@
       <c r="AY48" s="7"/>
       <c r="AZ48" s="7"/>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>131</v>
       </c>
@@ -8537,7 +8537,7 @@
       <c r="AY49" s="7"/>
       <c r="AZ49" s="7"/>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>132</v>
       </c>
@@ -8687,7 +8687,7 @@
       <c r="AY50" s="7"/>
       <c r="AZ50" s="7"/>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>133</v>
       </c>
@@ -8837,7 +8837,7 @@
       <c r="AY51" s="7"/>
       <c r="AZ51" s="7"/>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>134</v>
       </c>
@@ -8987,7 +8987,7 @@
       <c r="AY52" s="7"/>
       <c r="AZ52" s="7"/>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>135</v>
       </c>
@@ -9137,7 +9137,7 @@
       <c r="AY53" s="7"/>
       <c r="AZ53" s="7"/>
     </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>136</v>
       </c>
@@ -9287,7 +9287,7 @@
       <c r="AY54" s="7"/>
       <c r="AZ54" s="7"/>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>137</v>
       </c>
@@ -9437,7 +9437,7 @@
       <c r="AY55" s="7"/>
       <c r="AZ55" s="7"/>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>138</v>
       </c>
@@ -9587,7 +9587,7 @@
       <c r="AY56" s="7"/>
       <c r="AZ56" s="7"/>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>139</v>
       </c>
@@ -9737,7 +9737,7 @@
       <c r="AY57" s="7"/>
       <c r="AZ57" s="7"/>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>140</v>
       </c>
@@ -9887,7 +9887,7 @@
       <c r="AY58" s="7"/>
       <c r="AZ58" s="7"/>
     </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>141</v>
       </c>
@@ -10037,7 +10037,7 @@
       <c r="AY59" s="7"/>
       <c r="AZ59" s="7"/>
     </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>142</v>
       </c>
@@ -10187,7 +10187,7 @@
       <c r="AY60" s="7"/>
       <c r="AZ60" s="7"/>
     </row>
-    <row r="61" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>143</v>
       </c>
@@ -10337,7 +10337,7 @@
       <c r="AY61" s="7"/>
       <c r="AZ61" s="7"/>
     </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>144</v>
       </c>
@@ -10487,7 +10487,7 @@
       <c r="AY62" s="7"/>
       <c r="AZ62" s="7"/>
     </row>
-    <row r="63" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>145</v>
       </c>
@@ -10637,7 +10637,7 @@
       <c r="AY63" s="7"/>
       <c r="AZ63" s="7"/>
     </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>146</v>
       </c>
@@ -10787,7 +10787,7 @@
       <c r="AY64" s="7"/>
       <c r="AZ64" s="7"/>
     </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>147</v>
       </c>
@@ -10937,7 +10937,7 @@
       <c r="AY65" s="7"/>
       <c r="AZ65" s="7"/>
     </row>
-    <row r="66" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>148</v>
       </c>
@@ -11087,7 +11087,7 @@
       <c r="AY66" s="7"/>
       <c r="AZ66" s="7"/>
     </row>
-    <row r="67" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>149</v>
       </c>
@@ -11237,7 +11237,7 @@
       <c r="AY67" s="7"/>
       <c r="AZ67" s="7"/>
     </row>
-    <row r="68" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>150</v>
       </c>
@@ -11387,7 +11387,7 @@
       <c r="AY68" s="7"/>
       <c r="AZ68" s="7"/>
     </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>151</v>
       </c>
@@ -11537,7 +11537,7 @@
       <c r="AY69" s="7"/>
       <c r="AZ69" s="7"/>
     </row>
-    <row r="70" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>152</v>
       </c>
@@ -11687,7 +11687,7 @@
       <c r="AY70" s="7"/>
       <c r="AZ70" s="7"/>
     </row>
-    <row r="71" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>153</v>
       </c>
@@ -11837,7 +11837,7 @@
       <c r="AY71" s="7"/>
       <c r="AZ71" s="7"/>
     </row>
-    <row r="72" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>154</v>
       </c>
@@ -11987,7 +11987,7 @@
       <c r="AY72" s="7"/>
       <c r="AZ72" s="7"/>
     </row>
-    <row r="73" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>155</v>
       </c>
@@ -12137,7 +12137,7 @@
       <c r="AY73" s="7"/>
       <c r="AZ73" s="7"/>
     </row>
-    <row r="74" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>156</v>
       </c>
@@ -12287,7 +12287,7 @@
       <c r="AY74" s="7"/>
       <c r="AZ74" s="7"/>
     </row>
-    <row r="75" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>157</v>
       </c>
@@ -12437,7 +12437,7 @@
       <c r="AY75" s="7"/>
       <c r="AZ75" s="7"/>
     </row>
-    <row r="76" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>158</v>
       </c>
@@ -12587,7 +12587,7 @@
       <c r="AY76" s="7"/>
       <c r="AZ76" s="7"/>
     </row>
-    <row r="77" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>159</v>
       </c>
@@ -12737,7 +12737,7 @@
       <c r="AY77" s="7"/>
       <c r="AZ77" s="7"/>
     </row>
-    <row r="78" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>160</v>
       </c>
@@ -12887,7 +12887,7 @@
       <c r="AY78" s="7"/>
       <c r="AZ78" s="7"/>
     </row>
-    <row r="79" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>161</v>
       </c>
@@ -13037,7 +13037,7 @@
       <c r="AY79" s="7"/>
       <c r="AZ79" s="7"/>
     </row>
-    <row r="80" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>162</v>
       </c>
@@ -13187,7 +13187,7 @@
       <c r="AY80" s="7"/>
       <c r="AZ80" s="7"/>
     </row>
-    <row r="81" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>163</v>
       </c>
@@ -13337,7 +13337,7 @@
       <c r="AY81" s="7"/>
       <c r="AZ81" s="7"/>
     </row>
-    <row r="82" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>164</v>
       </c>
@@ -13487,7 +13487,7 @@
       <c r="AY82" s="7"/>
       <c r="AZ82" s="7"/>
     </row>
-    <row r="83" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>165</v>
       </c>
@@ -13637,7 +13637,7 @@
       <c r="AY83" s="7"/>
       <c r="AZ83" s="7"/>
     </row>
-    <row r="84" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>166</v>
       </c>
@@ -13787,7 +13787,7 @@
       <c r="AY84" s="7"/>
       <c r="AZ84" s="7"/>
     </row>
-    <row r="85" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>167</v>
       </c>
@@ -13937,7 +13937,7 @@
       <c r="AY85" s="7"/>
       <c r="AZ85" s="7"/>
     </row>
-    <row r="86" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>168</v>
       </c>
@@ -14087,7 +14087,7 @@
       <c r="AY86" s="7"/>
       <c r="AZ86" s="7"/>
     </row>
-    <row r="87" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>169</v>
       </c>
@@ -14237,7 +14237,7 @@
       <c r="AY87" s="7"/>
       <c r="AZ87" s="7"/>
     </row>
-    <row r="88" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>170</v>
       </c>
@@ -14387,7 +14387,7 @@
       <c r="AY88" s="7"/>
       <c r="AZ88" s="7"/>
     </row>
-    <row r="89" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>171</v>
       </c>
@@ -14537,7 +14537,7 @@
       <c r="AY89" s="7"/>
       <c r="AZ89" s="7"/>
     </row>
-    <row r="90" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>172</v>
       </c>
@@ -14687,7 +14687,7 @@
       <c r="AY90" s="7"/>
       <c r="AZ90" s="7"/>
     </row>
-    <row r="91" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>173</v>
       </c>
@@ -14837,7 +14837,7 @@
       <c r="AY91" s="7"/>
       <c r="AZ91" s="7"/>
     </row>
-    <row r="92" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>174</v>
       </c>
@@ -14987,7 +14987,7 @@
       <c r="AY92" s="7"/>
       <c r="AZ92" s="7"/>
     </row>
-    <row r="93" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>175</v>
       </c>
@@ -15137,7 +15137,7 @@
       <c r="AY93" s="7"/>
       <c r="AZ93" s="7"/>
     </row>
-    <row r="94" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>176</v>
       </c>
@@ -15287,7 +15287,7 @@
       <c r="AY94" s="7"/>
       <c r="AZ94" s="7"/>
     </row>
-    <row r="95" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>177</v>
       </c>
@@ -15437,7 +15437,7 @@
       <c r="AY95" s="7"/>
       <c r="AZ95" s="7"/>
     </row>
-    <row r="96" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>178</v>
       </c>
@@ -15587,7 +15587,7 @@
       <c r="AY96" s="7"/>
       <c r="AZ96" s="7"/>
     </row>
-    <row r="97" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>179</v>
       </c>
@@ -15737,7 +15737,7 @@
       <c r="AY97" s="7"/>
       <c r="AZ97" s="7"/>
     </row>
-    <row r="98" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>180</v>
       </c>
@@ -15887,7 +15887,7 @@
       <c r="AY98" s="7"/>
       <c r="AZ98" s="7"/>
     </row>
-    <row r="99" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>181</v>
       </c>
@@ -16037,7 +16037,7 @@
       <c r="AY99" s="7"/>
       <c r="AZ99" s="7"/>
     </row>
-    <row r="100" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>182</v>
       </c>
@@ -16187,7 +16187,7 @@
       <c r="AY100" s="7"/>
       <c r="AZ100" s="7"/>
     </row>
-    <row r="101" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>183</v>
       </c>
@@ -16337,7 +16337,7 @@
       <c r="AY101" s="7"/>
       <c r="AZ101" s="7"/>
     </row>
-    <row r="102" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>184</v>
       </c>
@@ -16487,7 +16487,7 @@
       <c r="AY102" s="7"/>
       <c r="AZ102" s="7"/>
     </row>
-    <row r="103" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>185</v>
       </c>
@@ -16637,7 +16637,7 @@
       <c r="AY103" s="7"/>
       <c r="AZ103" s="7"/>
     </row>
-    <row r="104" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>186</v>
       </c>
@@ -16787,7 +16787,7 @@
       <c r="AY104" s="7"/>
       <c r="AZ104" s="7"/>
     </row>
-    <row r="105" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>187</v>
       </c>
@@ -16937,7 +16937,7 @@
       <c r="AY105" s="7"/>
       <c r="AZ105" s="7"/>
     </row>
-    <row r="106" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>188</v>
       </c>
@@ -17087,7 +17087,7 @@
       <c r="AY106" s="7"/>
       <c r="AZ106" s="7"/>
     </row>
-    <row r="107" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>189</v>
       </c>
@@ -17237,7 +17237,7 @@
       <c r="AY107" s="7"/>
       <c r="AZ107" s="7"/>
     </row>
-    <row r="108" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>190</v>
       </c>
@@ -17387,7 +17387,7 @@
       <c r="AY108" s="7"/>
       <c r="AZ108" s="7"/>
     </row>
-    <row r="109" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>191</v>
       </c>
@@ -17537,7 +17537,7 @@
       <c r="AY109" s="7"/>
       <c r="AZ109" s="7"/>
     </row>
-    <row r="110" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>192</v>
       </c>
@@ -17687,7 +17687,7 @@
       <c r="AY110" s="7"/>
       <c r="AZ110" s="7"/>
     </row>
-    <row r="111" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>193</v>
       </c>
@@ -17837,7 +17837,7 @@
       <c r="AY111" s="7"/>
       <c r="AZ111" s="7"/>
     </row>
-    <row r="112" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>194</v>
       </c>
@@ -17987,7 +17987,7 @@
       <c r="AY112" s="7"/>
       <c r="AZ112" s="7"/>
     </row>
-    <row r="113" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>195</v>
       </c>
@@ -18137,7 +18137,7 @@
       <c r="AY113" s="7"/>
       <c r="AZ113" s="7"/>
     </row>
-    <row r="114" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>196</v>
       </c>
@@ -18287,7 +18287,7 @@
       <c r="AY114" s="7"/>
       <c r="AZ114" s="7"/>
     </row>
-    <row r="115" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>197</v>
       </c>
@@ -18437,7 +18437,7 @@
       <c r="AY115" s="7"/>
       <c r="AZ115" s="7"/>
     </row>
-    <row r="116" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>198</v>
       </c>
@@ -18587,7 +18587,7 @@
       <c r="AY116" s="7"/>
       <c r="AZ116" s="7"/>
     </row>
-    <row r="117" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>199</v>
       </c>
@@ -18737,7 +18737,7 @@
       <c r="AY117" s="7"/>
       <c r="AZ117" s="7"/>
     </row>
-    <row r="118" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>200</v>
       </c>
@@ -18887,7 +18887,7 @@
       <c r="AY118" s="7"/>
       <c r="AZ118" s="7"/>
     </row>
-    <row r="119" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>201</v>
       </c>
@@ -19037,7 +19037,7 @@
       <c r="AY119" s="7"/>
       <c r="AZ119" s="7"/>
     </row>
-    <row r="120" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>202</v>
       </c>
@@ -19187,7 +19187,7 @@
       <c r="AY120" s="7"/>
       <c r="AZ120" s="7"/>
     </row>
-    <row r="121" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>203</v>
       </c>
@@ -19337,7 +19337,7 @@
       <c r="AY121" s="7"/>
       <c r="AZ121" s="7"/>
     </row>
-    <row r="122" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>204</v>
       </c>
@@ -19487,7 +19487,7 @@
       <c r="AY122" s="7"/>
       <c r="AZ122" s="7"/>
     </row>
-    <row r="123" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>205</v>
       </c>
@@ -19637,7 +19637,7 @@
       <c r="AY123" s="7"/>
       <c r="AZ123" s="7"/>
     </row>
-    <row r="124" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>206</v>
       </c>
@@ -19787,7 +19787,7 @@
       <c r="AY124" s="7"/>
       <c r="AZ124" s="7"/>
     </row>
-    <row r="125" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>207</v>
       </c>
@@ -19937,7 +19937,7 @@
       <c r="AY125" s="7"/>
       <c r="AZ125" s="7"/>
     </row>
-    <row r="126" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>208</v>
       </c>
@@ -20087,7 +20087,7 @@
       <c r="AY126" s="7"/>
       <c r="AZ126" s="7"/>
     </row>
-    <row r="127" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>209</v>
       </c>
@@ -20237,7 +20237,7 @@
       <c r="AY127" s="7"/>
       <c r="AZ127" s="7"/>
     </row>
-    <row r="128" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>210</v>
       </c>
@@ -20387,7 +20387,7 @@
       <c r="AY128" s="7"/>
       <c r="AZ128" s="7"/>
     </row>
-    <row r="129" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>211</v>
       </c>
@@ -20537,7 +20537,7 @@
       <c r="AY129" s="7"/>
       <c r="AZ129" s="7"/>
     </row>
-    <row r="130" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>212</v>
       </c>
@@ -20687,7 +20687,7 @@
       <c r="AY130" s="7"/>
       <c r="AZ130" s="7"/>
     </row>
-    <row r="131" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>213</v>
       </c>
@@ -20837,7 +20837,7 @@
       <c r="AY131" s="7"/>
       <c r="AZ131" s="7"/>
     </row>
-    <row r="132" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>214</v>
       </c>
@@ -20987,7 +20987,7 @@
       <c r="AY132" s="7"/>
       <c r="AZ132" s="7"/>
     </row>
-    <row r="133" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>215</v>
       </c>
@@ -21137,7 +21137,7 @@
       <c r="AY133" s="7"/>
       <c r="AZ133" s="7"/>
     </row>
-    <row r="134" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>216</v>
       </c>
@@ -21287,7 +21287,7 @@
       <c r="AY134" s="7"/>
       <c r="AZ134" s="7"/>
     </row>
-    <row r="135" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>217</v>
       </c>
@@ -21437,7 +21437,7 @@
       <c r="AY135" s="7"/>
       <c r="AZ135" s="7"/>
     </row>
-    <row r="136" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>218</v>
       </c>
@@ -21587,7 +21587,7 @@
       <c r="AY136" s="7"/>
       <c r="AZ136" s="7"/>
     </row>
-    <row r="137" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>219</v>
       </c>
@@ -21737,7 +21737,7 @@
       <c r="AY137" s="7"/>
       <c r="AZ137" s="7"/>
     </row>
-    <row r="138" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>220</v>
       </c>
@@ -21887,7 +21887,7 @@
       <c r="AY138" s="7"/>
       <c r="AZ138" s="7"/>
     </row>
-    <row r="139" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>221</v>
       </c>
@@ -22037,7 +22037,7 @@
       <c r="AY139" s="7"/>
       <c r="AZ139" s="7"/>
     </row>
-    <row r="140" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>222</v>
       </c>
@@ -22187,7 +22187,7 @@
       <c r="AY140" s="7"/>
       <c r="AZ140" s="7"/>
     </row>
-    <row r="141" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>223</v>
       </c>
@@ -22337,7 +22337,7 @@
       <c r="AY141" s="7"/>
       <c r="AZ141" s="7"/>
     </row>
-    <row r="142" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>224</v>
       </c>
@@ -22487,7 +22487,7 @@
       <c r="AY142" s="7"/>
       <c r="AZ142" s="7"/>
     </row>
-    <row r="143" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>225</v>
       </c>
@@ -22637,7 +22637,7 @@
       <c r="AY143" s="7"/>
       <c r="AZ143" s="7"/>
     </row>
-    <row r="144" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>226</v>
       </c>
@@ -22787,7 +22787,7 @@
       <c r="AY144" s="7"/>
       <c r="AZ144" s="7"/>
     </row>
-    <row r="145" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>227</v>
       </c>
@@ -22937,7 +22937,7 @@
       <c r="AY145" s="7"/>
       <c r="AZ145" s="7"/>
     </row>
-    <row r="146" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>228</v>
       </c>
@@ -23087,7 +23087,7 @@
       <c r="AY146" s="7"/>
       <c r="AZ146" s="7"/>
     </row>
-    <row r="147" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>229</v>
       </c>
@@ -23237,7 +23237,7 @@
       <c r="AY147" s="7"/>
       <c r="AZ147" s="7"/>
     </row>
-    <row r="148" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>230</v>
       </c>
@@ -23387,7 +23387,7 @@
       <c r="AY148" s="7"/>
       <c r="AZ148" s="7"/>
     </row>
-    <row r="149" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>231</v>
       </c>
@@ -23537,7 +23537,7 @@
       <c r="AY149" s="7"/>
       <c r="AZ149" s="7"/>
     </row>
-    <row r="150" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>232</v>
       </c>
@@ -23687,7 +23687,7 @@
       <c r="AY150" s="7"/>
       <c r="AZ150" s="7"/>
     </row>
-    <row r="151" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>233</v>
       </c>
@@ -23837,7 +23837,7 @@
       <c r="AY151" s="7"/>
       <c r="AZ151" s="7"/>
     </row>
-    <row r="152" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>234</v>
       </c>
@@ -23987,7 +23987,7 @@
       <c r="AY152" s="7"/>
       <c r="AZ152" s="7"/>
     </row>
-    <row r="153" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>235</v>
       </c>
@@ -24137,7 +24137,7 @@
       <c r="AY153" s="7"/>
       <c r="AZ153" s="7"/>
     </row>
-    <row r="154" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>236</v>
       </c>
@@ -24287,7 +24287,7 @@
       <c r="AY154" s="7"/>
       <c r="AZ154" s="7"/>
     </row>
-    <row r="155" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>237</v>
       </c>
@@ -24437,7 +24437,7 @@
       <c r="AY155" s="7"/>
       <c r="AZ155" s="7"/>
     </row>
-    <row r="156" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>238</v>
       </c>
@@ -24587,7 +24587,7 @@
       <c r="AY156" s="7"/>
       <c r="AZ156" s="7"/>
     </row>
-    <row r="157" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>239</v>
       </c>
@@ -24737,7 +24737,7 @@
       <c r="AY157" s="7"/>
       <c r="AZ157" s="7"/>
     </row>
-    <row r="158" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>240</v>
       </c>
@@ -24887,7 +24887,7 @@
       <c r="AY158" s="7"/>
       <c r="AZ158" s="7"/>
     </row>
-    <row r="159" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>241</v>
       </c>
@@ -25037,7 +25037,7 @@
       <c r="AY159" s="7"/>
       <c r="AZ159" s="7"/>
     </row>
-    <row r="160" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>242</v>
       </c>
@@ -25187,7 +25187,7 @@
       <c r="AY160" s="7"/>
       <c r="AZ160" s="7"/>
     </row>
-    <row r="161" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>243</v>
       </c>
@@ -25337,7 +25337,7 @@
       <c r="AY161" s="7"/>
       <c r="AZ161" s="7"/>
     </row>
-    <row r="162" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>244</v>
       </c>
@@ -25487,7 +25487,7 @@
       <c r="AY162" s="7"/>
       <c r="AZ162" s="7"/>
     </row>
-    <row r="163" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>245</v>
       </c>
@@ -25637,7 +25637,7 @@
       <c r="AY163" s="7"/>
       <c r="AZ163" s="7"/>
     </row>
-    <row r="164" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>246</v>
       </c>
@@ -25787,7 +25787,7 @@
       <c r="AY164" s="7"/>
       <c r="AZ164" s="7"/>
     </row>
-    <row r="165" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>247</v>
       </c>
@@ -25937,7 +25937,7 @@
       <c r="AY165" s="7"/>
       <c r="AZ165" s="7"/>
     </row>
-    <row r="166" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>248</v>
       </c>
@@ -26087,7 +26087,7 @@
       <c r="AY166" s="7"/>
       <c r="AZ166" s="7"/>
     </row>
-    <row r="167" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>249</v>
       </c>
@@ -26237,7 +26237,7 @@
       <c r="AY167" s="7"/>
       <c r="AZ167" s="7"/>
     </row>
-    <row r="168" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>250</v>
       </c>
@@ -26387,7 +26387,7 @@
       <c r="AY168" s="7"/>
       <c r="AZ168" s="7"/>
     </row>
-    <row r="169" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>251</v>
       </c>
@@ -26537,7 +26537,7 @@
       <c r="AY169" s="7"/>
       <c r="AZ169" s="7"/>
     </row>
-    <row r="170" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>252</v>
       </c>
@@ -26687,7 +26687,7 @@
       <c r="AY170" s="7"/>
       <c r="AZ170" s="7"/>
     </row>
-    <row r="171" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>253</v>
       </c>
@@ -26837,7 +26837,7 @@
       <c r="AY171" s="7"/>
       <c r="AZ171" s="7"/>
     </row>
-    <row r="172" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>254</v>
       </c>
@@ -26987,7 +26987,7 @@
       <c r="AY172" s="7"/>
       <c r="AZ172" s="7"/>
     </row>
-    <row r="173" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>255</v>
       </c>
@@ -27137,7 +27137,7 @@
       <c r="AY173" s="7"/>
       <c r="AZ173" s="7"/>
     </row>
-    <row r="174" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>256</v>
       </c>
@@ -27287,7 +27287,7 @@
       <c r="AY174" s="7"/>
       <c r="AZ174" s="7"/>
     </row>
-    <row r="175" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>257</v>
       </c>
@@ -27437,7 +27437,7 @@
       <c r="AY175" s="7"/>
       <c r="AZ175" s="7"/>
     </row>
-    <row r="176" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>258</v>
       </c>
@@ -27587,7 +27587,7 @@
       <c r="AY176" s="7"/>
       <c r="AZ176" s="7"/>
     </row>
-    <row r="177" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>259</v>
       </c>
@@ -27737,7 +27737,7 @@
       <c r="AY177" s="7"/>
       <c r="AZ177" s="7"/>
     </row>
-    <row r="178" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>260</v>
       </c>
@@ -27887,7 +27887,7 @@
       <c r="AY178" s="7"/>
       <c r="AZ178" s="7"/>
     </row>
-    <row r="179" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>261</v>
       </c>
@@ -28037,7 +28037,7 @@
       <c r="AY179" s="7"/>
       <c r="AZ179" s="7"/>
     </row>
-    <row r="180" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>262</v>
       </c>
@@ -28187,7 +28187,7 @@
       <c r="AY180" s="7"/>
       <c r="AZ180" s="7"/>
     </row>
-    <row r="181" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>263</v>
       </c>
@@ -28337,7 +28337,7 @@
       <c r="AY181" s="7"/>
       <c r="AZ181" s="7"/>
     </row>
-    <row r="182" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>264</v>
       </c>
@@ -28487,7 +28487,7 @@
       <c r="AY182" s="7"/>
       <c r="AZ182" s="7"/>
     </row>
-    <row r="183" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>265</v>
       </c>
@@ -28637,7 +28637,7 @@
       <c r="AY183" s="7"/>
       <c r="AZ183" s="7"/>
     </row>
-    <row r="184" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>266</v>
       </c>
@@ -28787,7 +28787,7 @@
       <c r="AY184" s="7"/>
       <c r="AZ184" s="7"/>
     </row>
-    <row r="185" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>267</v>
       </c>
@@ -28937,7 +28937,7 @@
       <c r="AY185" s="7"/>
       <c r="AZ185" s="7"/>
     </row>
-    <row r="186" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>268</v>
       </c>
@@ -29087,7 +29087,7 @@
       <c r="AY186" s="7"/>
       <c r="AZ186" s="7"/>
     </row>
-    <row r="187" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>269</v>
       </c>
@@ -29237,7 +29237,7 @@
       <c r="AY187" s="7"/>
       <c r="AZ187" s="7"/>
     </row>
-    <row r="188" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>270</v>
       </c>
@@ -29387,7 +29387,7 @@
       <c r="AY188" s="7"/>
       <c r="AZ188" s="7"/>
     </row>
-    <row r="189" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>271</v>
       </c>
@@ -29537,7 +29537,7 @@
       <c r="AY189" s="7"/>
       <c r="AZ189" s="7"/>
     </row>
-    <row r="190" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>272</v>
       </c>
@@ -29687,7 +29687,7 @@
       <c r="AY190" s="7"/>
       <c r="AZ190" s="7"/>
     </row>
-    <row r="191" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>273</v>
       </c>
@@ -29837,7 +29837,7 @@
       <c r="AY191" s="7"/>
       <c r="AZ191" s="7"/>
     </row>
-    <row r="192" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>274</v>
       </c>
@@ -29987,7 +29987,7 @@
       <c r="AY192" s="7"/>
       <c r="AZ192" s="7"/>
     </row>
-    <row r="193" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>275</v>
       </c>
@@ -30137,7 +30137,7 @@
       <c r="AY193" s="7"/>
       <c r="AZ193" s="7"/>
     </row>
-    <row r="194" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>276</v>
       </c>
@@ -30287,7 +30287,7 @@
       <c r="AY194" s="7"/>
       <c r="AZ194" s="7"/>
     </row>
-    <row r="195" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>277</v>
       </c>
@@ -30437,7 +30437,7 @@
       <c r="AY195" s="7"/>
       <c r="AZ195" s="7"/>
     </row>
-    <row r="196" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>278</v>
       </c>
@@ -30587,7 +30587,7 @@
       <c r="AY196" s="7"/>
       <c r="AZ196" s="7"/>
     </row>
-    <row r="197" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>279</v>
       </c>
@@ -30737,7 +30737,7 @@
       <c r="AY197" s="7"/>
       <c r="AZ197" s="7"/>
     </row>
-    <row r="198" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>280</v>
       </c>
@@ -30887,7 +30887,7 @@
       <c r="AY198" s="7"/>
       <c r="AZ198" s="7"/>
     </row>
-    <row r="199" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>281</v>
       </c>
@@ -31037,7 +31037,7 @@
       <c r="AY199" s="7"/>
       <c r="AZ199" s="7"/>
     </row>
-    <row r="200" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>282</v>
       </c>
@@ -31187,7 +31187,7 @@
       <c r="AY200" s="7"/>
       <c r="AZ200" s="7"/>
     </row>
-    <row r="201" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>283</v>
       </c>
@@ -31337,7 +31337,7 @@
       <c r="AY201" s="7"/>
       <c r="AZ201" s="7"/>
     </row>
-    <row r="202" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>284</v>
       </c>
@@ -31487,7 +31487,7 @@
       <c r="AY202" s="7"/>
       <c r="AZ202" s="7"/>
     </row>
-    <row r="203" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>285</v>
       </c>
@@ -31637,7 +31637,7 @@
       <c r="AY203" s="7"/>
       <c r="AZ203" s="7"/>
     </row>
-    <row r="204" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>286</v>
       </c>
@@ -31787,7 +31787,7 @@
       <c r="AY204" s="7"/>
       <c r="AZ204" s="7"/>
     </row>
-    <row r="205" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>287</v>
       </c>
@@ -31933,7 +31933,7 @@
       <c r="AY205" s="7"/>
       <c r="AZ205" s="7"/>
     </row>
-    <row r="206" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>288</v>
       </c>
@@ -32079,7 +32079,7 @@
       <c r="AY206" s="7"/>
       <c r="AZ206" s="7"/>
     </row>
-    <row r="207" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>289</v>
       </c>
@@ -32225,7 +32225,7 @@
       <c r="AY207" s="7"/>
       <c r="AZ207" s="7"/>
     </row>
-    <row r="208" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>290</v>
       </c>
@@ -32371,7 +32371,7 @@
       <c r="AY208" s="7"/>
       <c r="AZ208" s="7"/>
     </row>
-    <row r="209" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>291</v>
       </c>
@@ -32517,7 +32517,7 @@
       <c r="AY209" s="7"/>
       <c r="AZ209" s="7"/>
     </row>
-    <row r="210" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>292</v>
       </c>
@@ -32663,7 +32663,7 @@
       <c r="AY210" s="7"/>
       <c r="AZ210" s="7"/>
     </row>
-    <row r="211" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>293</v>
       </c>
@@ -32809,7 +32809,7 @@
       <c r="AY211" s="7"/>
       <c r="AZ211" s="7"/>
     </row>
-    <row r="212" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>294</v>
       </c>
@@ -32955,7 +32955,7 @@
       <c r="AY212" s="7"/>
       <c r="AZ212" s="7"/>
     </row>
-    <row r="213" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>295</v>
       </c>
@@ -33101,7 +33101,7 @@
       <c r="AY213" s="7"/>
       <c r="AZ213" s="7"/>
     </row>
-    <row r="214" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>296</v>
       </c>
@@ -33247,7 +33247,7 @@
       <c r="AY214" s="7"/>
       <c r="AZ214" s="7"/>
     </row>
-    <row r="215" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>297</v>
       </c>
@@ -33393,7 +33393,7 @@
       <c r="AY215" s="7"/>
       <c r="AZ215" s="7"/>
     </row>
-    <row r="216" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>298</v>
       </c>
@@ -33539,7 +33539,7 @@
       <c r="AY216" s="7"/>
       <c r="AZ216" s="7"/>
     </row>
-    <row r="217" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>299</v>
       </c>
@@ -33685,7 +33685,7 @@
       <c r="AY217" s="7"/>
       <c r="AZ217" s="7"/>
     </row>
-    <row r="218" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>300</v>
       </c>
@@ -33831,7 +33831,7 @@
       <c r="AY218" s="7"/>
       <c r="AZ218" s="7"/>
     </row>
-    <row r="219" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>301</v>
       </c>
@@ -33977,7 +33977,7 @@
       <c r="AY219" s="7"/>
       <c r="AZ219" s="7"/>
     </row>
-    <row r="220" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>302</v>
       </c>
@@ -34123,7 +34123,7 @@
       <c r="AY220" s="7"/>
       <c r="AZ220" s="7"/>
     </row>
-    <row r="221" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>303</v>
       </c>
@@ -34269,7 +34269,7 @@
       <c r="AY221" s="7"/>
       <c r="AZ221" s="7"/>
     </row>
-    <row r="222" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>304</v>
       </c>
@@ -34412,6 +34412,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010056866B741E667E48845CF4E895A44BF5" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="054ebe87a23d7123a22f28c4ff9f407d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="68602ca3-e809-4f88-a050-e2e82715ef3b" xmlns:ns3="2b06489c-ce8e-406b-944b-0057494561e1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="33892726a0b3e31f97f5461f48262754" ns2:_="" ns3:_="">
     <xsd:import namespace="68602ca3-e809-4f88-a050-e2e82715ef3b"/>
@@ -34602,22 +34617,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4000868-38F1-43A5-8DAC-CB1B1C7927E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{057B35CE-0E12-4B9B-9BBA-F830F80CE5FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A48A8F30-201D-4929-A662-6EADB8BE9BDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34634,21 +34651,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{057B35CE-0E12-4B9B-9BBA-F830F80CE5FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4000868-38F1-43A5-8DAC-CB1B1C7927E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>